--- a/D25TXCN02-N/Tin_Hoc_Co_So/Bai_tap_SUM_AVERAGE_ROUND.xlsx
+++ b/D25TXCN02-N/Tin_Hoc_Co_So/Bai_tap_SUM_AVERAGE_ROUND.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MNz\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PTIT\D25TXCN02-N\Tin_Hoc_Co_So\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97EDA33A-AC28-47ED-BE1E-EBE8F958B974}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40296834-4434-42F3-BBB5-FB670F1AE94D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5100" yWindow="1608" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bai1_DiemTB" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="34">
   <si>
     <t>Họ tên</t>
   </si>
@@ -138,6 +138,9 @@
   </si>
   <si>
     <t>Kết quả (Đạt nếu TB&gt;=5)</t>
+  </si>
+  <si>
+    <t>Kết quả</t>
   </si>
 </sst>
 </file>
@@ -201,7 +204,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -211,6 +214,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -513,10 +524,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -527,7 +538,7 @@
     <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -549,8 +560,11 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -575,8 +589,12 @@
         <f>ROUND(F2,1)</f>
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H2" s="6" t="str">
+        <f>IF(G2&gt;=5,"Đạt","Không đạt")</f>
+        <v>Đạt</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -601,8 +619,12 @@
         <f t="shared" ref="G3:G6" si="2">ROUND(F3,1)</f>
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H3" s="6" t="str">
+        <f t="shared" ref="H3:H6" si="3">IF(G3&gt;=5,"Đạt","Không đạt")</f>
+        <v>Đạt</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -627,8 +649,12 @@
         <f t="shared" si="2"/>
         <v>8.6999999999999993</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H4" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>Đạt</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -653,8 +679,12 @@
         <f t="shared" si="2"/>
         <v>5.7</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H5" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>Đạt</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
@@ -678,6 +708,10 @@
       <c r="G6" s="2">
         <f t="shared" si="2"/>
         <v>9.6999999999999993</v>
+      </c>
+      <c r="H6" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>Đạt</v>
       </c>
     </row>
   </sheetData>
@@ -690,7 +724,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -838,10 +872,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -854,7 +888,7 @@
     <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -877,7 +911,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -899,11 +933,12 @@
         <v>2500000</v>
       </c>
       <c r="G2" s="3">
-        <f>ROUND(F2, 0)</f>
+        <f>ROUND(F2,-3)</f>
         <v>2500000</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H2" s="8"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -924,9 +959,13 @@
         <f t="shared" ref="F3:F5" si="1">AVERAGE(B3:D3)</f>
         <v>2933333.3333333335</v>
       </c>
-      <c r="G3" s="3"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G3" s="3">
+        <f t="shared" ref="G3:G5" si="2">ROUND(F3,-3)</f>
+        <v>2933000</v>
+      </c>
+      <c r="H3" s="8"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -947,9 +986,13 @@
         <f t="shared" si="1"/>
         <v>2233333.3333333335</v>
       </c>
-      <c r="G4" s="3"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G4" s="3">
+        <f t="shared" si="2"/>
+        <v>2233000</v>
+      </c>
+      <c r="H4" s="8"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -970,7 +1013,11 @@
         <f t="shared" si="1"/>
         <v>3500000</v>
       </c>
-      <c r="G5" s="3"/>
+      <c r="G5" s="3">
+        <f t="shared" si="2"/>
+        <v>3500000</v>
+      </c>
+      <c r="H5" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -981,8 +1028,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1045,8 +1092,14 @@
       <c r="G2" s="2">
         <v>2</v>
       </c>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
+      <c r="H2" s="7">
+        <f>SUMPRODUCT(B2:D2, E2:G2)/SUM(E2:G2)</f>
+        <v>8.8571428571428577</v>
+      </c>
+      <c r="I2" s="6" t="str">
+        <f>IF(H2&gt;=5,"Đạt","Không Đạt")</f>
+        <v>Đạt</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
@@ -1070,8 +1123,14 @@
       <c r="G3" s="2">
         <v>2</v>
       </c>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
+      <c r="H3" s="7">
+        <f t="shared" ref="H3:H4" si="0">SUMPRODUCT(B3:D3, E3:G3)/SUM(E3:G3)</f>
+        <v>3.8571428571428572</v>
+      </c>
+      <c r="I3" s="6" t="str">
+        <f t="shared" ref="I3:I4" si="1">IF(H3&gt;=5,"Đạt","Không Đạt")</f>
+        <v>Không Đạt</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
@@ -1095,8 +1154,14 @@
       <c r="G4" s="2">
         <v>2</v>
       </c>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
+      <c r="H4" s="7">
+        <f t="shared" si="0"/>
+        <v>5.1428571428571432</v>
+      </c>
+      <c r="I4" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>Đạt</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
